--- a/PycharmCodes_xlsxFiles/data_return_0726.xlsx
+++ b/PycharmCodes_xlsxFiles/data_return_0726.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMS55\OneDrive\Documents\성균관대학교\LAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMS55\OneDrive\Documents\성균관대학교\LAB\skku_robotory\PycharmCodes_xlsxFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17550" windowHeight="6540" activeTab="7"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="9150" windowHeight="7000" activeTab="11"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="9mm" sheetId="1" r:id="rId4"/>
@@ -23,6 +23,8 @@
     <x:sheet name="dp" sheetId="9" r:id="rId12"/>
     <x:sheet name="un" sheetId="10" r:id="rId13"/>
     <x:sheet name="up" sheetId="11" r:id="rId14"/>
+    <x:sheet name="dn_new" sheetId="12" r:id="rId15"/>
+    <x:sheet name="un_new" sheetId="13" r:id="rId16"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlchart.v1.0" hidden="1">'9mm'!$P$2</x:definedName>
@@ -33,279 +35,405 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="91">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="133">
+  <x:si>
+    <x:t>Weight_un_new24.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new15.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new15.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new24.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new12.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new18.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp9.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn9.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn21.1</x:t>
+  </x:si>
   <x:si>
     <x:t>Weight_dp27.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Weight_dn9.3</x:t>
+    <x:t>Weight_up9.1</x:t>
   </x:si>
   <x:si>
     <x:t>Weight_un9.2</x:t>
   </x:si>
   <x:si>
+    <x:t>Weight_dp9.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn9.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp9.3</x:t>
+  </x:si>
+  <x:si>
     <x:t>Weight_up9.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Weight_dn9.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp9.3</x:t>
-  </x:si>
-  <x:si>
     <x:t>Weight_un9.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Weight_up9.1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Weight_un9.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Weight_dp9.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp9.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn21.1</x:t>
+    <x:t>Weight_up12.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up12.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn12.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up15.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un12.3</x:t>
   </x:si>
   <x:si>
     <x:t>Weight_dp12.3</x:t>
   </x:si>
   <x:si>
+    <x:t>Weight_un15.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp12.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp15.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp15.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp15.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn15.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn9.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un18.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up18.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn18.2</x:t>
+  </x:si>
+  <x:si>
     <x:t>Weight_up15.3</x:t>
   </x:si>
   <x:si>
+    <x:t>Weight_up15.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un12.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp18.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un18.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn18.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up18.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up18.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up9.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn15.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn12.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp12.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un15.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn15.3</x:t>
+  </x:si>
+  <x:si>
     <x:t>Weight_un12.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Weight_up12.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up15.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un12.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up15.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un15.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp12.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn15.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un15.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn12.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp15.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp15.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn12.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un12.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp12.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn18.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn15.3</x:t>
-  </x:si>
-  <x:si>
     <x:t>Weight_dp18.2</x:t>
   </x:si>
   <x:si>
-    <x:t>Weight_dp15.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un18.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp18.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un18.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn18.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up12.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn15.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up18.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn9.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up18.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up9.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up18.2</x:t>
+    <x:t>Weight_dn27.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn21.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un21.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un27.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up12.3</x:t>
   </x:si>
   <x:si>
     <x:t>Weight_un18.3</x:t>
   </x:si>
   <x:si>
+    <x:t>Weight_up24.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn24.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un21.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up21.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn24.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un24.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un21.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up24.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn27.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp24.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up21.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un27.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp24.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up27.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp21.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn18.3</x:t>
+  </x:si>
+  <x:si>
     <x:t>Weight_dn12.2</x:t>
   </x:si>
   <x:si>
-    <x:t>Weight_up12.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn18.3</x:t>
+    <x:t>Weight_dn27.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un15.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn24.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp24.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un27.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up27.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up24.3</x:t>
   </x:si>
   <x:si>
     <x:t>Weight_dp18.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Weight_un15.3</x:t>
+    <x:t>Weight_dn21.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp21.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp27.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up21.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_up27.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp27.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un24.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un24.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dp21.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new15.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new12.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new18.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new27.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new15.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new21.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new21.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new18.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new27.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new9.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20kpa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40kpa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60kpa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50kpa</x:t>
   </x:si>
   <x:si>
     <x:t>30kpa</x:t>
   </x:si>
   <x:si>
-    <x:t>40kpa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50kpa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60kpa</x:t>
+    <x:t>10kpa</x:t>
   </x:si>
   <x:si>
     <x:t>70kpa</x:t>
   </x:si>
   <x:si>
-    <x:t>10kpa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20kpa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un21.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un27.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp21.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn24.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn24.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un24.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up24.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up24.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up24.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up21.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn21.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn21.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un27.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp24.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un21.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un21.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn27.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn27.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up21.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn24.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dn27.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp24.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un27.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp24.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up27.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up27.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up27.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp21.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp21.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_up21.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un24.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_un24.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp27.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight_dp27.2</x:t>
+    <x:t>Weight_un_new21.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new18.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new21.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new9.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new12.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new24.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new12.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new18.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new27.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new27.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new9.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new9.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new9.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new12.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new12.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new18.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new24.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new21.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new9.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new15.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new27.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new24.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_un_new27.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new15.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new24.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight_dn_new21.3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -923,45 +1051,45 @@
     <x:row r="1" spans="1:13" ht="16.399999999999999">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H1" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I1" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I1" s="7" t="s">
+      <x:c r="J1" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K1" s="9" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="J1" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K1" s="9" t="s">
-        <x:v>7</x:v>
       </x:c>
       <x:c r="L1" s="9" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="M1" s="9" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13" ht="16.399999999999999">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="4">
         <x:v>2.5499999999999998</x:v>
@@ -1002,7 +1130,7 @@
     </x:row>
     <x:row r="3" spans="1:13" ht="16.399999999999999">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="4">
         <x:v>4.9100000000000001</x:v>
@@ -1043,7 +1171,7 @@
     </x:row>
     <x:row r="4" spans="1:13" ht="16.399999999999999">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="4">
         <x:v>6.79</x:v>
@@ -1084,7 +1212,7 @@
     </x:row>
     <x:row r="5" spans="1:13" ht="16.399999999999999">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="4">
         <x:v>7.4000000000000004</x:v>
@@ -1125,7 +1253,7 @@
     </x:row>
     <x:row r="6" spans="1:13" ht="16.399999999999999">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>8.1999999999999993</x:v>
@@ -1166,7 +1294,7 @@
     </x:row>
     <x:row r="7" spans="1:13" ht="16.399999999999999">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="4"/>
       <x:c r="E7" s="6"/>
@@ -1191,7 +1319,7 @@
     </x:row>
     <x:row r="8" spans="1:13" ht="16.399999999999999">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="E8" s="6"/>
@@ -1215,7 +1343,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1226,7 +1354,7 @@
   <x:dimension ref="A1:V8"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A8"/>
+      <x:selection activeCell="B1" activeCellId="0" sqref="B1:V1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
@@ -1234,49 +1362,49 @@
     <x:row r="1" spans="1:22">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I1" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J1" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K1" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L1" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M1" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N1" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="O1" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="P1" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="Q1" s="5" t="s">
         <x:v>88</x:v>
@@ -1285,21 +1413,21 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="S1" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="T1" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="U1" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="V1" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:22">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="6">
         <x:v>1.1599999999999999</x:v>
@@ -1367,7 +1495,7 @@
     </x:row>
     <x:row r="3" spans="1:22">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="6">
         <x:v>1.97</x:v>
@@ -1435,7 +1563,7 @@
     </x:row>
     <x:row r="4" spans="1:22">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="6">
         <x:v>2.7799999999999998</x:v>
@@ -1503,7 +1631,7 @@
     </x:row>
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="6">
         <x:v>3.9500000000000002</x:v>
@@ -1571,7 +1699,7 @@
     </x:row>
     <x:row r="6" spans="1:22">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="6">
         <x:v>4.6200000000000001</x:v>
@@ -1639,7 +1767,7 @@
     </x:row>
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="6"/>
       <x:c r="C7" s="6"/>
@@ -1665,7 +1793,7 @@
     </x:row>
     <x:row r="8" spans="1:22">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="6"/>
       <x:c r="C8" s="6"/>
@@ -1690,7 +1818,7 @@
       <x:c r="V8" s="6"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1709,72 +1837,72 @@
     <x:row r="1" spans="1:22">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="9" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1" s="9" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D1" s="9" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H1" s="9" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I1" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J1" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K1" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L1" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M1" s="9" t="s">
-        <x:v>41</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N1" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="O1" s="9" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="P1" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Q1" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="R1" s="9" t="s">
-        <x:v>65</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="S1" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="T1" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="U1" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="V1" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:22">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="10">
         <x:v>1.3899999999999999</x:v>
@@ -1842,7 +1970,7 @@
     </x:row>
     <x:row r="3" spans="1:22">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="10">
         <x:v>2.6099999999999999</x:v>
@@ -1910,7 +2038,7 @@
     </x:row>
     <x:row r="4" spans="1:22">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="10">
         <x:v>3.8500000000000001</x:v>
@@ -1978,7 +2106,7 @@
     </x:row>
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="10">
         <x:v>5.0899999999999999</x:v>
@@ -2046,7 +2174,7 @@
     </x:row>
     <x:row r="6" spans="1:22">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="10">
         <x:v>6.3399999999999999</x:v>
@@ -2114,7 +2242,7 @@
     </x:row>
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="10">
         <x:v>7.5800000000000001</x:v>
@@ -2182,7 +2310,7 @@
     </x:row>
     <x:row r="8" spans="1:22">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="10">
         <x:v>8.8100000000000005</x:v>
@@ -2246,6 +2374,878 @@
       </x:c>
       <x:c r="V8" s="10">
         <x:v>3.0600000000000001</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet13"/>
+  <x:dimension ref="A1:V8"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="T4" activeCellId="0" sqref="T4:T4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="2" max="22" width="8.66015625" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:22">
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="3" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G1" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="H1" s="3" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K1" s="3" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="L1" s="3" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="M1" s="3" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="N1" s="3" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="O1" s="3" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="P1" s="3" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="Q1" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="R1" s="3" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="S1" s="3" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="T1" s="3" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="U1" s="3" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="V1" s="3" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:22">
+      <x:c r="A2" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B2">
+        <x:v>1.29</x:v>
+      </x:c>
+      <x:c r="C2">
+        <x:v>1.3500000000000001</x:v>
+      </x:c>
+      <x:c r="D2">
+        <x:v>1.1799999999999999</x:v>
+      </x:c>
+      <x:c r="E2">
+        <x:v>1.1599999999999999</x:v>
+      </x:c>
+      <x:c r="F2">
+        <x:v>1.3500000000000001</x:v>
+      </x:c>
+      <x:c r="G2">
+        <x:v>1.45</x:v>
+      </x:c>
+      <x:c r="H2">
+        <x:v>1.74</x:v>
+      </x:c>
+      <x:c r="I2">
+        <x:v>2.02</x:v>
+      </x:c>
+      <x:c r="J2">
+        <x:v>2.1099999999999999</x:v>
+      </x:c>
+      <x:c r="K2">
+        <x:v>1.6499999999999999</x:v>
+      </x:c>
+      <x:c r="L2">
+        <x:v>1.9099999999999999</x:v>
+      </x:c>
+      <x:c r="M2">
+        <x:v>2.0699999999999998</x:v>
+      </x:c>
+      <x:c r="N2">
+        <x:v>1.3400000000000001</x:v>
+      </x:c>
+      <x:c r="O2">
+        <x:v>1.6100000000000001</x:v>
+      </x:c>
+      <x:c r="P2">
+        <x:v>1.7</x:v>
+      </x:c>
+      <x:c r="Q2">
+        <x:v>0.95999999999999996</x:v>
+      </x:c>
+      <x:c r="R2">
+        <x:v>0.97999999999999998</x:v>
+      </x:c>
+      <x:c r="S2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T2">
+        <x:v>1.21</x:v>
+      </x:c>
+      <x:c r="U2">
+        <x:v>1.2</x:v>
+      </x:c>
+      <x:c r="V2">
+        <x:v>1.22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:22">
+      <x:c r="A3" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3">
+        <x:v>2.4900000000000002</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>2.54</x:v>
+      </x:c>
+      <x:c r="D3">
+        <x:v>2.3500000000000001</x:v>
+      </x:c>
+      <x:c r="E3">
+        <x:v>2.3500000000000001</x:v>
+      </x:c>
+      <x:c r="F3">
+        <x:v>2.5099999999999998</x:v>
+      </x:c>
+      <x:c r="G3">
+        <x:v>2.5899999999999999</x:v>
+      </x:c>
+      <x:c r="H3">
+        <x:v>3.1299999999999999</x:v>
+      </x:c>
+      <x:c r="I3">
+        <x:v>3.4100000000000001</x:v>
+      </x:c>
+      <x:c r="J3">
+        <x:v>3.48</x:v>
+      </x:c>
+      <x:c r="K3">
+        <x:v>3.1600000000000001</x:v>
+      </x:c>
+      <x:c r="L3">
+        <x:v>3.3100000000000001</x:v>
+      </x:c>
+      <x:c r="M3">
+        <x:v>3.4100000000000001</x:v>
+      </x:c>
+      <x:c r="N3">
+        <x:v>2.6699999999999999</x:v>
+      </x:c>
+      <x:c r="O3">
+        <x:v>2.7599999999999998</x:v>
+      </x:c>
+      <x:c r="P3">
+        <x:v>2.8300000000000001</x:v>
+      </x:c>
+      <x:c r="Q3">
+        <x:v>1.96</x:v>
+      </x:c>
+      <x:c r="R3">
+        <x:v>1.9399999999999999</x:v>
+      </x:c>
+      <x:c r="S3">
+        <x:v>1.9399999999999999</x:v>
+      </x:c>
+      <x:c r="T3">
+        <x:v>1.8500000000000001</x:v>
+      </x:c>
+      <x:c r="U3">
+        <x:v>1.75</x:v>
+      </x:c>
+      <x:c r="V3">
+        <x:v>1.73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:22">
+      <x:c r="A4" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B4">
+        <x:v>3.6499999999999999</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>3.7200000000000002</x:v>
+      </x:c>
+      <x:c r="D4">
+        <x:v>3.5099999999999998</x:v>
+      </x:c>
+      <x:c r="E4">
+        <x:v>3.52</x:v>
+      </x:c>
+      <x:c r="F4">
+        <x:v>3.6499999999999999</x:v>
+      </x:c>
+      <x:c r="G4">
+        <x:v>3.7200000000000002</x:v>
+      </x:c>
+      <x:c r="H4">
+        <x:v>4.4299999999999997</x:v>
+      </x:c>
+      <x:c r="I4">
+        <x:v>4.6299999999999999</x:v>
+      </x:c>
+      <x:c r="J4">
+        <x:v>4.6500000000000004</x:v>
+      </x:c>
+      <x:c r="K4">
+        <x:v>4.5599999999999996</x:v>
+      </x:c>
+      <x:c r="L4">
+        <x:v>4.6100000000000003</x:v>
+      </x:c>
+      <x:c r="M4">
+        <x:v>4.6799999999999997</x:v>
+      </x:c>
+      <x:c r="N4">
+        <x:v>3.7200000000000002</x:v>
+      </x:c>
+      <x:c r="O4">
+        <x:v>3.75</x:v>
+      </x:c>
+      <x:c r="P4">
+        <x:v>3.75</x:v>
+      </x:c>
+      <x:c r="Q4">
+        <x:v>2.79</x:v>
+      </x:c>
+      <x:c r="R4">
+        <x:v>2.7599999999999998</x:v>
+      </x:c>
+      <x:c r="S4">
+        <x:v>2.8100000000000001</x:v>
+      </x:c>
+      <x:c r="T4">
+        <x:v>2.2400000000000002</x:v>
+      </x:c>
+      <x:c r="U4">
+        <x:v>2.21</x:v>
+      </x:c>
+      <x:c r="V4">
+        <x:v>2.1899999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:22">
+      <x:c r="A5" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B5">
+        <x:v>4.9299999999999997</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>4.8099999999999996</x:v>
+      </x:c>
+      <x:c r="D5">
+        <x:v>4.6699999999999999</x:v>
+      </x:c>
+      <x:c r="E5">
+        <x:v>4.7000000000000002</x:v>
+      </x:c>
+      <x:c r="F5">
+        <x:v>4.79</x:v>
+      </x:c>
+      <x:c r="G5">
+        <x:v>4.8600000000000003</x:v>
+      </x:c>
+      <x:c r="H5">
+        <x:v>5.5199999999999996</x:v>
+      </x:c>
+      <x:c r="I5">
+        <x:v>5.5999999999999996</x:v>
+      </x:c>
+      <x:c r="J5">
+        <x:v>5.6399999999999997</x:v>
+      </x:c>
+      <x:c r="K5">
+        <x:v>5.7599999999999998</x:v>
+      </x:c>
+      <x:c r="L5">
+        <x:v>5.8099999999999996</x:v>
+      </x:c>
+      <x:c r="M5">
+        <x:v>5.8799999999999999</x:v>
+      </x:c>
+      <x:c r="N5">
+        <x:v>4.5300000000000002</x:v>
+      </x:c>
+      <x:c r="O5">
+        <x:v>4.5199999999999996</x:v>
+      </x:c>
+      <x:c r="P5">
+        <x:v>4.5199999999999996</x:v>
+      </x:c>
+      <x:c r="Q5">
+        <x:v>3.5899999999999999</x:v>
+      </x:c>
+      <x:c r="R5">
+        <x:v>3.54</x:v>
+      </x:c>
+      <x:c r="S5">
+        <x:v>3.5299999999999998</x:v>
+      </x:c>
+      <x:c r="T5">
+        <x:v>2.6299999999999999</x:v>
+      </x:c>
+      <x:c r="U5">
+        <x:v>2.6200000000000001</x:v>
+      </x:c>
+      <x:c r="V5">
+        <x:v>2.6099999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:22">
+      <x:c r="A6" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B6">
+        <x:v>6.3600000000000003</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>5.8200000000000003</x:v>
+      </x:c>
+      <x:c r="D6">
+        <x:v>5.7599999999999998</x:v>
+      </x:c>
+      <x:c r="E6">
+        <x:v>5.8399999999999999</x:v>
+      </x:c>
+      <x:c r="F6">
+        <x:v>5.9100000000000001</x:v>
+      </x:c>
+      <x:c r="G6">
+        <x:v>5.96</x:v>
+      </x:c>
+      <x:c r="H6">
+        <x:v>6.5499999999999998</x:v>
+      </x:c>
+      <x:c r="I6">
+        <x:v>6.6200000000000001</x:v>
+      </x:c>
+      <x:c r="J6">
+        <x:v>6.71</x:v>
+      </x:c>
+      <x:c r="K6">
+        <x:v>6.8099999999999996</x:v>
+      </x:c>
+      <x:c r="L6">
+        <x:v>6.8899999999999997</x:v>
+      </x:c>
+      <x:c r="M6">
+        <x:v>6.9000000000000004</x:v>
+      </x:c>
+      <x:c r="N6">
+        <x:v>5.2400000000000002</x:v>
+      </x:c>
+      <x:c r="O6">
+        <x:v>5.2800000000000002</x:v>
+      </x:c>
+      <x:c r="P6">
+        <x:v>5.2199999999999998</x:v>
+      </x:c>
+      <x:c r="Q6">
+        <x:v>4.21</x:v>
+      </x:c>
+      <x:c r="R6">
+        <x:v>4.1399999999999997</x:v>
+      </x:c>
+      <x:c r="S6">
+        <x:v>4.0099999999999998</x:v>
+      </x:c>
+      <x:c r="T6">
+        <x:v>3.0099999999999998</x:v>
+      </x:c>
+      <x:c r="U6">
+        <x:v>3.0299999999999998</x:v>
+      </x:c>
+      <x:c r="V6">
+        <x:v>2.9199999999999999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet12"/>
+  <x:dimension ref="A1:V8"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="2" max="22" width="8.66015625" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:22">
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="5" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C1" s="5" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D1" s="5" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E1" s="5" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="F1" s="5" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G1" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H1" s="5" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="J1" s="5" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="K1" s="5" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="L1" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M1" s="5" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="N1" s="5" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="O1" s="5" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="P1" s="5" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="Q1" s="5" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="R1" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S1" s="5" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="T1" s="5" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="U1" s="5" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="V1" s="5" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:22">
+      <x:c r="A2" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B2">
+        <x:v>1.51</x:v>
+      </x:c>
+      <x:c r="C2">
+        <x:v>1.54</x:v>
+      </x:c>
+      <x:c r="D2">
+        <x:v>1.53</x:v>
+      </x:c>
+      <x:c r="E2">
+        <x:v>1.24</x:v>
+      </x:c>
+      <x:c r="F2">
+        <x:v>1.05</x:v>
+      </x:c>
+      <x:c r="G2">
+        <x:v>1.03</x:v>
+      </x:c>
+      <x:c r="H2">
+        <x:v>1.24</x:v>
+      </x:c>
+      <x:c r="I2">
+        <x:v>0.93000000000000005</x:v>
+      </x:c>
+      <x:c r="J2">
+        <x:v>1.1499999999999999</x:v>
+      </x:c>
+      <x:c r="K2">
+        <x:v>1.22</x:v>
+      </x:c>
+      <x:c r="L2">
+        <x:v>1.3200000000000001</x:v>
+      </x:c>
+      <x:c r="M2">
+        <x:v>1.4099999999999999</x:v>
+      </x:c>
+      <x:c r="N2">
+        <x:v>2.1699999999999999</x:v>
+      </x:c>
+      <x:c r="O2">
+        <x:v>2.1699999999999999</x:v>
+      </x:c>
+      <x:c r="P2">
+        <x:v>2.3900000000000001</x:v>
+      </x:c>
+      <x:c r="Q2">
+        <x:v>1.3100000000000001</x:v>
+      </x:c>
+      <x:c r="R2">
+        <x:v>1.53</x:v>
+      </x:c>
+      <x:c r="S2">
+        <x:v>1.5600000000000001</x:v>
+      </x:c>
+      <x:c r="T2">
+        <x:v>2.27</x:v>
+      </x:c>
+      <x:c r="U2">
+        <x:v>2.1099999999999999</x:v>
+      </x:c>
+      <x:c r="V2">
+        <x:v>2.23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:22">
+      <x:c r="A3" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B3">
+        <x:v>2.96</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>3.1299999999999999</x:v>
+      </x:c>
+      <x:c r="D3">
+        <x:v>3.1000000000000001</x:v>
+      </x:c>
+      <x:c r="E3">
+        <x:v>2.4500000000000002</x:v>
+      </x:c>
+      <x:c r="F3">
+        <x:v>2.4500000000000002</x:v>
+      </x:c>
+      <x:c r="G3">
+        <x:v>2.3999999999999999</x:v>
+      </x:c>
+      <x:c r="H3">
+        <x:v>3.02</x:v>
+      </x:c>
+      <x:c r="I3">
+        <x:v>2.9100000000000001</x:v>
+      </x:c>
+      <x:c r="J3">
+        <x:v>3.0600000000000001</x:v>
+      </x:c>
+      <x:c r="K3">
+        <x:v>3.2799999999999998</x:v>
+      </x:c>
+      <x:c r="L3">
+        <x:v>3.29</x:v>
+      </x:c>
+      <x:c r="M3">
+        <x:v>3.3700000000000001</x:v>
+      </x:c>
+      <x:c r="N3">
+        <x:v>4.29</x:v>
+      </x:c>
+      <x:c r="O3">
+        <x:v>4.21</x:v>
+      </x:c>
+      <x:c r="P3">
+        <x:v>4.2699999999999996</x:v>
+      </x:c>
+      <x:c r="Q3">
+        <x:v>2.9500000000000002</x:v>
+      </x:c>
+      <x:c r="R3">
+        <x:v>3.0600000000000001</x:v>
+      </x:c>
+      <x:c r="S3">
+        <x:v>3.0800000000000001</x:v>
+      </x:c>
+      <x:c r="T3">
+        <x:v>3.98</x:v>
+      </x:c>
+      <x:c r="U3">
+        <x:v>3.8399999999999999</x:v>
+      </x:c>
+      <x:c r="V3">
+        <x:v>3.9100000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:22">
+      <x:c r="A4" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B4">
+        <x:v>4.5099999999999998</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>4.7199999999999998</x:v>
+      </x:c>
+      <x:c r="D4">
+        <x:v>4.75</x:v>
+      </x:c>
+      <x:c r="E4">
+        <x:v>3.73</x:v>
+      </x:c>
+      <x:c r="F4">
+        <x:v>3.8199999999999998</x:v>
+      </x:c>
+      <x:c r="G4">
+        <x:v>3.8100000000000001</x:v>
+      </x:c>
+      <x:c r="H4">
+        <x:v>4.6600000000000001</x:v>
+      </x:c>
+      <x:c r="I4">
+        <x:v>4.5899999999999999</x:v>
+      </x:c>
+      <x:c r="J4">
+        <x:v>4.6100000000000003</x:v>
+      </x:c>
+      <x:c r="K4">
+        <x:v>4.9699999999999998</x:v>
+      </x:c>
+      <x:c r="L4">
+        <x:v>5.0499999999999998</x:v>
+      </x:c>
+      <x:c r="M4">
+        <x:v>5.1399999999999997</x:v>
+      </x:c>
+      <x:c r="N4">
+        <x:v>5.8600000000000003</x:v>
+      </x:c>
+      <x:c r="O4">
+        <x:v>5.6799999999999997</x:v>
+      </x:c>
+      <x:c r="P4">
+        <x:v>5.7400000000000002</x:v>
+      </x:c>
+      <x:c r="Q4">
+        <x:v>4.6200000000000001</x:v>
+      </x:c>
+      <x:c r="R4">
+        <x:v>4.6299999999999999</x:v>
+      </x:c>
+      <x:c r="S4">
+        <x:v>4.6600000000000001</x:v>
+      </x:c>
+      <x:c r="T4">
+        <x:v>5.4500000000000002</x:v>
+      </x:c>
+      <x:c r="U4">
+        <x:v>5.2699999999999996</x:v>
+      </x:c>
+      <x:c r="V4">
+        <x:v>5.3600000000000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:22">
+      <x:c r="A5" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B5">
+        <x:v>6.1500000000000004</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>6.4000000000000004</x:v>
+      </x:c>
+      <x:c r="D5">
+        <x:v>6.3899999999999997</x:v>
+      </x:c>
+      <x:c r="E5">
+        <x:v>5.5499999999999998</x:v>
+      </x:c>
+      <x:c r="F5">
+        <x:v>5.4100000000000001</x:v>
+      </x:c>
+      <x:c r="G5">
+        <x:v>5.6100000000000003</x:v>
+      </x:c>
+      <x:c r="H5">
+        <x:v>6.4100000000000001</x:v>
+      </x:c>
+      <x:c r="I5">
+        <x:v>6.0899999999999999</x:v>
+      </x:c>
+      <x:c r="J5">
+        <x:v>6.21</x:v>
+      </x:c>
+      <x:c r="K5">
+        <x:v>6.6900000000000004</x:v>
+      </x:c>
+      <x:c r="L5">
+        <x:v>6.8200000000000003</x:v>
+      </x:c>
+      <x:c r="M5">
+        <x:v>6.96</x:v>
+      </x:c>
+      <x:c r="N5">
+        <x:v>6.96</x:v>
+      </x:c>
+      <x:c r="O5">
+        <x:v>7.2800000000000002</x:v>
+      </x:c>
+      <x:c r="P5">
+        <x:v>7.3200000000000003</x:v>
+      </x:c>
+      <x:c r="Q5">
+        <x:v>6.1799999999999997</x:v>
+      </x:c>
+      <x:c r="R5">
+        <x:v>6.2000000000000002</x:v>
+      </x:c>
+      <x:c r="S5">
+        <x:v>6.2000000000000002</x:v>
+      </x:c>
+      <x:c r="T5">
+        <x:v>6.6900000000000004</x:v>
+      </x:c>
+      <x:c r="U5">
+        <x:v>6.9400000000000004</x:v>
+      </x:c>
+      <x:c r="V5">
+        <x:v>7.0099999999999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:22">
+      <x:c r="A6" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B6">
+        <x:v>7.71</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>7.7599999999999998</x:v>
+      </x:c>
+      <x:c r="D6">
+        <x:v>7.7599999999999998</x:v>
+      </x:c>
+      <x:c r="E6">
+        <x:v>7.0700000000000003</x:v>
+      </x:c>
+      <x:c r="F6">
+        <x:v>7.1100000000000003</x:v>
+      </x:c>
+      <x:c r="G6">
+        <x:v>7.21</x:v>
+      </x:c>
+      <x:c r="H6">
+        <x:v>7.8200000000000003</x:v>
+      </x:c>
+      <x:c r="I6">
+        <x:v>7.6500000000000004</x:v>
+      </x:c>
+      <x:c r="J6">
+        <x:v>7.9100000000000001</x:v>
+      </x:c>
+      <x:c r="K6">
+        <x:v>8.5099999999999998</x:v>
+      </x:c>
+      <x:c r="L6">
+        <x:v>8.6600000000000001</x:v>
+      </x:c>
+      <x:c r="M6">
+        <x:v>8.6799999999999997</x:v>
+      </x:c>
+      <x:c r="N6">
+        <x:v>8.7200000000000006</x:v>
+      </x:c>
+      <x:c r="O6">
+        <x:v>8.9000000000000004</x:v>
+      </x:c>
+      <x:c r="P6">
+        <x:v>8.9299999999999997</x:v>
+      </x:c>
+      <x:c r="Q6">
+        <x:v>7.6600000000000001</x:v>
+      </x:c>
+      <x:c r="R6">
+        <x:v>7.6799999999999997</x:v>
+      </x:c>
+      <x:c r="S6">
+        <x:v>7.4000000000000004</x:v>
+      </x:c>
+      <x:c r="T6">
+        <x:v>8.3699999999999992</x:v>
+      </x:c>
+      <x:c r="U6">
+        <x:v>8.3800000000000008</x:v>
+      </x:c>
+      <x:c r="V6">
+        <x:v>8.1600000000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="1" t="s">
+        <x:v>106</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2268,48 +3268,48 @@
     <x:row r="1" spans="1:14">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E1" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F1" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G1" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H1" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I1" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J1" s="7" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E1" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F1" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G1" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H1" s="7" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I1" s="7" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J1" s="7" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="K1" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L1" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="M1" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N1" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="4">
         <x:v>1.8200000000000001</x:v>
@@ -2353,7 +3353,7 @@
     </x:row>
     <x:row r="3" spans="1:14">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="4">
         <x:v>3.5600000000000001</x:v>
@@ -2397,7 +3397,7 @@
     </x:row>
     <x:row r="4" spans="1:14">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="4">
         <x:v>5.5</x:v>
@@ -2441,7 +3441,7 @@
     </x:row>
     <x:row r="5" spans="1:14">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="4">
         <x:v>7.5099999999999998</x:v>
@@ -2485,7 +3485,7 @@
     </x:row>
     <x:row r="6" spans="1:14">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>9.1500000000000004</x:v>
@@ -2529,7 +3529,7 @@
     </x:row>
     <x:row r="7" spans="1:14">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="4"/>
       <x:c r="C7" s="4"/>
@@ -2561,7 +3561,7 @@
     </x:row>
     <x:row r="8" spans="1:14">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4"/>
@@ -3232,7 +4232,7 @@
       <x:c r="N48" s="10"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3251,45 +4251,45 @@
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E1" s="5" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F1" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G1" s="5" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H1" s="7" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K1" s="9" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E1" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F1" s="5" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G1" s="5" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H1" s="7" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I1" s="7" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J1" s="7" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="K1" s="9" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="L1" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M1" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="4">
         <x:v>1.8500000000000001</x:v>
@@ -3330,7 +4330,7 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="4">
         <x:v>3.29</x:v>
@@ -3371,7 +4371,7 @@
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="4">
         <x:v>3.98</x:v>
@@ -3412,7 +4412,7 @@
     </x:row>
     <x:row r="5" spans="1:13">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="4">
         <x:v>4.9000000000000004</x:v>
@@ -3453,7 +4453,7 @@
     </x:row>
     <x:row r="6" spans="1:13">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>6.0599999999999996</x:v>
@@ -3494,7 +4494,7 @@
     </x:row>
     <x:row r="7" spans="1:13">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="4"/>
       <x:c r="C7" s="4"/>
@@ -3523,7 +4523,7 @@
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4"/>
@@ -3551,7 +4551,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3570,45 +4570,45 @@
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H1" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I1" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J1" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="K1" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L1" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M1" s="9" t="s">
-        <x:v>41</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="4">
         <x:v>2.0800000000000001</x:v>
@@ -3649,7 +4649,7 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="4">
         <x:v>3.4399999999999999</x:v>
@@ -3690,7 +4690,7 @@
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="4">
         <x:v>4.5899999999999999</x:v>
@@ -3731,7 +4731,7 @@
     </x:row>
     <x:row r="5" spans="1:13">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="4">
         <x:v>5.6100000000000003</x:v>
@@ -3772,7 +4772,7 @@
     </x:row>
     <x:row r="6" spans="1:13">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>6.5800000000000001</x:v>
@@ -3813,7 +4813,7 @@
     </x:row>
     <x:row r="7" spans="1:13">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="4"/>
       <x:c r="C7" s="4"/>
@@ -3842,7 +4842,7 @@
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4"/>
@@ -3870,7 +4870,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3889,45 +4889,45 @@
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H1" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I1" s="7" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="J1" s="7" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="K1" s="9" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="J1" s="7" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="K1" s="9" t="s">
-        <x:v>86</x:v>
       </x:c>
       <x:c r="L1" s="9" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="M1" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="4">
         <x:v>1.3400000000000001</x:v>
@@ -3968,7 +4968,7 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="4">
         <x:v>2.46</x:v>
@@ -4009,7 +5009,7 @@
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="4">
         <x:v>3.3900000000000001</x:v>
@@ -4050,7 +5050,7 @@
     </x:row>
     <x:row r="5" spans="1:13">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="4">
         <x:v>4.2599999999999998</x:v>
@@ -4091,7 +5091,7 @@
     </x:row>
     <x:row r="6" spans="1:13">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>5.0899999999999999</x:v>
@@ -4132,7 +5132,7 @@
     </x:row>
     <x:row r="7" spans="1:13">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="4"/>
       <x:c r="C7" s="4"/>
@@ -4161,7 +5161,7 @@
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4"/>
@@ -4189,7 +5189,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4208,13 +5208,13 @@
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
         <x:v>88</x:v>
@@ -4223,30 +5223,30 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H1" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I1" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J1" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="K1" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L1" s="9" t="s">
-        <x:v>65</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M1" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="4">
         <x:v>1.5800000000000001</x:v>
@@ -4287,7 +5287,7 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="4">
         <x:v>2.2999999999999998</x:v>
@@ -4328,7 +5328,7 @@
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="4">
         <x:v>2.79</x:v>
@@ -4369,7 +5369,7 @@
     </x:row>
     <x:row r="5" spans="1:13">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="4">
         <x:v>3.3300000000000001</x:v>
@@ -4410,7 +5410,7 @@
     </x:row>
     <x:row r="6" spans="1:13">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>3.8599999999999999</x:v>
@@ -4451,7 +5451,7 @@
     </x:row>
     <x:row r="7" spans="1:13">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="4"/>
       <x:c r="C7" s="4"/>
@@ -4480,7 +5480,7 @@
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4"/>
@@ -4508,7 +5508,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4527,45 +5527,45 @@
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="D1" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E1" s="5" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F1" s="5" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G1" s="5" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="E1" s="5" t="s">
+      <x:c r="H1" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I1" s="7" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="J1" s="7" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="K1" s="9" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="F1" s="5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G1" s="5" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H1" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1" s="7" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="J1" s="7" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="K1" s="9" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="L1" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M1" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="4">
         <x:v>1.3899999999999999</x:v>
@@ -4606,7 +5606,7 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="4">
         <x:v>2.1600000000000001</x:v>
@@ -4647,7 +5647,7 @@
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="4">
         <x:v>2.7799999999999998</x:v>
@@ -4688,7 +5688,7 @@
     </x:row>
     <x:row r="5" spans="1:13">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="4">
         <x:v>3.27</x:v>
@@ -4729,7 +5729,7 @@
     </x:row>
     <x:row r="6" spans="1:13">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>3.6899999999999999</x:v>
@@ -4770,7 +5770,7 @@
     </x:row>
     <x:row r="7" spans="1:13">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="4"/>
       <x:c r="C7" s="4"/>
@@ -4799,7 +5799,7 @@
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4"/>
@@ -4827,7 +5827,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4837,8 +5837,8 @@
   <x:sheetPr codeName="Sheet8"/>
   <x:dimension ref="A1:V8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J3" activeCellId="0" sqref="J3:J3"/>
+    <x:sheetView topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B1" activeCellId="0" sqref="B1:V1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
@@ -4846,72 +5846,72 @@
     <x:row r="1" spans="1:22">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L1" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M1" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N1" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O1" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P1" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q1" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="R1" s="3" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="R1" s="3" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="S1" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="T1" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="U1" s="3" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="U1" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="V1" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:22">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="4">
         <x:v>2.5499999999999998</x:v>
@@ -4979,7 +5979,7 @@
     </x:row>
     <x:row r="3" spans="1:22">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="4">
         <x:v>4.9100000000000001</x:v>
@@ -5047,7 +6047,7 @@
     </x:row>
     <x:row r="4" spans="1:22">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="4">
         <x:v>6.79</x:v>
@@ -5115,7 +6115,7 @@
     </x:row>
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="4">
         <x:v>7.4000000000000004</x:v>
@@ -5183,7 +6183,7 @@
     </x:row>
     <x:row r="6" spans="1:22">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="4">
         <x:v>8.1999999999999993</x:v>
@@ -5251,7 +6251,7 @@
     </x:row>
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="4"/>
       <x:c r="C7" s="4"/>
@@ -5277,7 +6277,7 @@
     </x:row>
     <x:row r="8" spans="1:22">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4"/>
@@ -5302,7 +6302,7 @@
       <x:c r="V8" s="4"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -5321,72 +6321,72 @@
     <x:row r="1" spans="1:22">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C1" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E1" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F1" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G1" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H1" s="7" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I1" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J1" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K1" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L1" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="M1" s="7" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="N1" s="7" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="O1" s="7" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="P1" s="7" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="Q1" s="7" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="R1" s="7" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="S1" s="7" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="T1" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C1" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D1" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E1" s="7" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F1" s="7" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G1" s="7" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H1" s="7" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I1" s="7" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J1" s="7" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="K1" s="7" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="L1" s="7" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="M1" s="7" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="N1" s="7" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="O1" s="7" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="P1" s="7" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="Q1" s="7" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="R1" s="7" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="S1" s="7" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T1" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="U1" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="V1" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:22">
       <x:c r="A2" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="8">
         <x:v>3.0499999999999998</x:v>
@@ -5454,7 +6454,7 @@
     </x:row>
     <x:row r="3" spans="1:22">
       <x:c r="A3" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="8">
         <x:v>6.21</x:v>
@@ -5522,7 +6522,7 @@
     </x:row>
     <x:row r="4" spans="1:22">
       <x:c r="A4" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B4" s="8">
         <x:v>9.6600000000000001</x:v>
@@ -5590,7 +6590,7 @@
     </x:row>
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="8">
         <x:v>13.130000000000001</x:v>
@@ -5658,7 +6658,7 @@
     </x:row>
     <x:row r="6" spans="1:22">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="8">
         <x:v>16.59</x:v>
@@ -5726,7 +6726,7 @@
     </x:row>
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="8">
         <x:v>19.829999999999998</x:v>
@@ -5794,7 +6794,7 @@
     </x:row>
     <x:row r="8" spans="1:22">
       <x:c r="A8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="8">
         <x:v>22.690000000000001</x:v>
@@ -5861,7 +6861,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/PycharmCodes_xlsxFiles/data_return_0726.xlsx
+++ b/PycharmCodes_xlsxFiles/data_return_0726.xlsx
@@ -2387,8 +2387,8 @@
   <x:sheetPr codeName="Sheet13"/>
   <x:dimension ref="A1:V8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="T4" activeCellId="0" sqref="T4:T4"/>
+    <x:sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="S7" activeCellId="0" sqref="S7:S7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
@@ -5838,7 +5838,7 @@
   <x:dimension ref="A1:V8"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B1" activeCellId="0" sqref="B1:V1"/>
+      <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
